--- a/spreadsheet/macrofree/resiliency_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/resiliency_checklist.pt.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -1104,12 +1069,12 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Habilite reparos automáticos de instância para resiliência aprimorada de conjuntos de dimensionamento de VM</t>
+          <t>Habilitar reparos automáticos de instância para resiliência aprimorada de Conjuntos de Dimensionamento de VM</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>Os reparos automáticos de instâncias garantem que instâncias não íntegras sejam prontamente identificadas e substituídas, mantendo um conjunto de instâncias íntegras dentro do conjunto de escala.</t>
+          <t>Os reparos automáticos de instância garantem que as instâncias não íntegras sejam prontamente identificadas e substituídas, mantendo um conjunto de instâncias íntegras em seu conjunto de dimensionamento.</t>
         </is>
       </c>
       <c r="E8" s="21" t="inlineStr">
@@ -1159,7 +1124,7 @@
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Verifique se o Backup do Azure é utilizado adequadamente para atender aos requisitos de resiliência da sua organização para máquinas virtuais (VMs) do Azure.</t>
+          <t>Verifique se o Backup do Azure é utilizado adequadamente para atender aos requisitos de resiliência da sua organização para VMs (máquinas virtuais) do Azure.</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
@@ -1209,7 +1174,7 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>VMs de instância única que usam SSD Premium ou Ultra Disk para todos os discos do sistema operacional e discos de dados têm a garantia de ter conectividade de máquina virtual de pelo menos 99,9%</t>
+          <t>As VMs de Instância Única que usam SSD Premium ou Disco Ultra para todos os Discos do Sistema Operacional e Discos de Dados têm a garantia de ter Conectividade de Máquina Virtual de pelo menos 99,9%</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
@@ -1254,12 +1219,12 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Verifique se os discos gerenciados são usados para todas as VMs</t>
+          <t>Verifique se os Managed Disks são usados para todas as VMs</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>O Azure replica automaticamente discos gerenciados em uma região para garantir a durabilidade dos dados e proteger contra falhas de ponto único.</t>
+          <t>O Azure replica automaticamente os discos gerenciados em uma região para garantir a durabilidade dos dados e proteger contra falhas de ponto único.</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1304,12 +1269,12 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Não use o disco Temp para nada que não seja aceitável ser perdido</t>
+          <t>Não use o disco temporário para qualquer coisa que não seja aceitável para ser perdida</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Os discos temporários destinam-se ao armazenamento de curto prazo de dados não persistentes, como arquivos de página, arquivos de permuta ou tempdb do SQL Server. O armazenamento de dados persistentes em discos temporários pode levar à perda de dados durante eventos de manutenção ou reimplantação de VM.</t>
+          <t>Os discos temporários destinam-se ao armazenamento de curto prazo de dados não persistentes, como arquivos de paginação, arquivos de permuta ou tempdb do SQL Server. O armazenamento de dados persistentes em discos temporários pode levar à perda de dados durante eventos de manutenção ou reimplantação de VM.</t>
         </is>
       </c>
       <c r="E12" s="21" t="inlineStr">
@@ -1354,12 +1319,12 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Aproveite as zonas de disponibilidade para suas VMs em regiões onde elas são suportadas</t>
+          <t>Aproveite as Zonas de Disponibilidade para suas VMs em regiões em que elas têm suporte</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Coloque seus recursos de computação, armazenamento, rede e dados em uma zona de disponibilidade e replique essa organização em outras zonas de disponibilidade.</t>
+          <t>Colocalize seus recursos de computação, armazenamento, rede e dados em uma zona de disponibilidade e replique essa organização em outras zonas de disponibilidade.</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
@@ -1404,12 +1369,12 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Para regiões que não oferecem suporte a zonas de disponibilidade, implante VMs em conjuntos de disponibilidade</t>
+          <t>Para regiões que não oferecem suporte a Zonas de Disponibilidade, implante VMs em Conjuntos de Disponibilidade</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>Use pelo menos duas VMs em Conjuntos de Disponibilidade para isolar VMs em domínios de falha e atualização diferentes.</t>
+          <t>Use pelo menos duas VMs em Conjuntos de Disponibilidade para isolar VMs em diferentes domínios de falha e atualização.</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
@@ -1459,7 +1424,7 @@
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>O Azure fornece várias opções para redundância de VM para atender a diferentes requisitos (Zonas de Disponibilidade, Conjuntos de Dimensionamento de Máquina Virtual, Conjuntos de Disponibilidade, Azure Site Recovery)</t>
+          <t>O Azure fornece várias opções de redundância de VM para atender a diferentes requisitos (Zonas de Disponibilidade, Conjuntos de Dimensionamento de Máquinas Virtuais, Conjuntos de Disponibilidade, Azure Site Recovery)</t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
@@ -1504,12 +1469,12 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Para VMs do Azure e locais (Hyper-V/Phyiscal/VMware) com requisitos RTO baixos, use o Azure Site Recovery</t>
+          <t>Para VMs locais e do Azure (Hyper-V/Phyiscal/VMware) com requisitos de RTO baixos, use o Azure Site Recovery</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>O Azure Site Recovery permite que você obtenha RTO (Recovery Time Objective, objetivo de tempo de recuperação) baixo para suas VMs híbridas e do Azure, fornecendo recursos de replicação contínua e failover.</t>
+          <t>O Azure Site Recovery permite que você obtenha RTO (Objetivo de Tempo de Recuperação) baixo para suas VMs híbridas e do Azure, fornecendo recursos contínuos de replicação e failover.</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1554,12 +1519,12 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Usar reservas de capacidade para cargas de trabalho críticas que exigem capacidade garantida</t>
+          <t>Use Reservas de Capacidade para cargas de trabalho críticas que exigem capacidade garantida</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>Usando Reservas de Capacidade, você pode gerenciar com eficiência a capacidade para cargas de trabalho críticas, garantindo a disponibilidade de recursos em regiões especificadas.</t>
+          <t>Usando as Reservas de Capacidade, você pode gerenciar com eficiência a capacidade de cargas de trabalho críticas, garantindo a disponibilidade de recursos em regiões especificadas.</t>
         </is>
       </c>
       <c r="E17" s="21" t="inlineStr">
@@ -1609,7 +1574,7 @@
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>Ao garantir que as cotas necessárias sejam aumentadas em sua região de DR antes de testar o failover com ASR, você pode evitar quaisquer restrições de recursos potenciais durante o processo de recuperação de VMs com failover.</t>
+          <t>Ao garantir que as cotas necessárias sejam aumentadas em sua região de DR antes de testar o failover com ASR, você pode evitar possíveis restrições de recursos durante o processo de recuperação para VMs com failover.</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1654,12 +1619,12 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Utilizar eventos agendados para se preparar para a manutenção da VM</t>
+          <t>Utilize eventos agendados para se preparar para a manutenção da VM</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>Eventos Agendados é um Serviço de Metadados do Azure que fornece informações sobre eventos de manutenção futuros para máquinas virtuais (VMs). Ao aproveitar os Eventos Agendados, você pode preparar proativamente seus aplicativos para manutenção de VMs, minimizando interrupções e melhorando a disponibilidade de suas VMs.</t>
+          <t>Eventos Agendados é um Serviço de Metadados do Azure que fornece informações sobre os próximos eventos de manutenção para VMs (máquinas virtuais). Ao aproveitar os eventos agendados, você pode preparar proativamente seus aplicativos para manutenção de VM, minimizando a interrupção e melhorando a disponibilidade de suas VMs.</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1709,7 +1674,7 @@
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Use ZRS (Zone-redundant Storage, armazenamento com redundância de zona) na região primária para cenários que exijam alta disponibilidade e para restringir a replicação a um determinado país ou região. Para proteção contra desastres regionais, use o GZRS (Geo-zone-redundant Storage, armazenamento redundante de zona geográfica), que combina o ZRS na região primária com a replicação geográfica para uma região secundária?.</t>
+          <t>Use o ZRS (Armazenamento com Redundância de Zona) na região primária para cenários que exigem alta disponibilidade e para restringir a replicação a um determinado país ou região. Para proteção contra desastres regionais, use o GZRS (Armazenamento com redundância de zona geográfica), que combina o ZRS na região primária com a replicação geográfica para uma região secundária?.</t>
         </is>
       </c>
       <c r="E20" s="21" t="inlineStr">
@@ -1754,12 +1719,12 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Aplicar um bloqueio Excluir para evitar a exclusão acidental ou mal-intencionada de contas de armazenamento</t>
+          <t>Aplicar um bloqueio de exclusão para evitar a exclusão acidental ou mal-intencionada de contas de armazenamento</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>A atribuição de um bloqueio de exclusão à sua conta de armazenamento ajuda a proteger a disponibilidade dos dados, minimizando o risco de interrupções nas operações de negócios.</t>
+          <t>Atribuir um bloqueio de exclusão à sua conta de armazenamento ajuda a proteger a disponibilidade de seus dados, minimizando o risco de interrupções em suas operações comerciais.</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -1804,12 +1769,12 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Habilitar exclusão flexível para contêineres de conta de armazenamento</t>
+          <t>Habilitar exclusão reversível para contêineres de conta de armazenamento</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>A exclusão suave do contêiner protege seus dados de serem excluídos acidentalmente, mantendo os dados excluídos no sistema por um período de tempo especificado.</t>
+          <t>A exclusão reversível do contêiner protege seus dados de serem excluídos acidentalmente, mantendo os dados excluídos no sistema por um período de tempo especificado.</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
@@ -1854,12 +1819,12 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Habilitar exclusão flexível para blobs</t>
+          <t>Habilitar exclusão reversível para blobs</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>A exclusão flexível de blob protege um blob individual e suas versões, instantâneos e metadados contra exclusões ou substituições acidentais, mantendo os dados excluídos no sistema por um período de tempo especificado.</t>
+          <t>A exclusão reversível de blob protege um blob individual e suas versões, instantâneos e metadados contra exclusões ou substituições acidentais, mantendo os dados excluídos no sistema por um período de tempo especificado.</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
@@ -1904,12 +1869,12 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Habilitar a exclusão flexível aprimorada do Backup do Azure para melhorar a proteção e a recuperação de dados</t>
+          <t>Habilitar a exclusão temporária aprimorada do Backup do Azure para melhorar a proteção e a recuperação de dados</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>A exclusão flexível aprimorada do Backup do Azure fornece proteção crítica contra ataques de ransomware, retendo backups excluídos, permitindo a recuperação de possíveis criptografias ou exclusões de ransomware.</t>
+          <t>A exclusão reversível aprimorada do Backup do Azure fornece proteção crítica contra ataques de ransomware, retendo backups excluídos, permitindo a recuperação de possíveis criptografias ou exclusão de ransomware.</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
@@ -1954,12 +1919,12 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Implementar autorização multiusuário para o Backup do Azure para garantir acesso seguro e controlado aos recursos de backup</t>
+          <t>Implementar a autorização multiusuário para o Backup do Azure para garantir o acesso seguro e controlado aos recursos de backup</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>A autorização multiusuário do Backup do Azure permite um controle refinado sobre o acesso do usuário aos recursos de backup, permitindo que você restrinja privilégios e garanta autenticação e autorização adequadas para operações de backup.</t>
+          <t>A autorização multiusuário do Backup do Azure permite um controle refinado sobre o acesso do usuário aos recursos de backup, permitindo que você restrinja privilégios e garanta a autenticação e a autorização adequadas para operações de backup.</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
@@ -2059,7 +2024,7 @@
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Defina claramente os requisitos de continuidade de negócios e recuperação de desastres da sua organização para seu ambiente do Azure. Isso inclui identificar os aplicativos, dados e serviços críticos que precisam ser protegidos, bem como especificar os objetivos e estratégias de recuperação desejados.</t>
+          <t>Defina claramente os requisitos de continuidade dos negócios e recuperação de desastre da sua organização para seu ambiente do Azure. Isso inclui identificar os aplicativos, dados e serviços críticos que precisam ser protegidos, bem como especificar os objetivos e estratégias de recuperação desejados.</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -2108,7 +2073,7 @@
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas arquiteturas do Azure sejam projetadas com foco na confiabilidade. Considere a implementação de mecanismos tolerantes a falhas, redundância e padrões de resiliência para minimizar o impacto de falhas e maximizar a disponibilidade de seus aplicativos e serviços.</t>
+          <t>Verifique se as arquiteturas do Azure foram projetadas com foco na confiabilidade. Considere a implementação de mecanismos tolerantes a falhas, redundância e padrões de resiliência para minimizar o impacto de falhas e maximizar a disponibilidade de seus aplicativos e serviços.</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -2152,12 +2117,12 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Implementar infraestrutura como código (IaC) para recuperação rápida de infraestrutura</t>
+          <t>Implemente a infraestrutura como código (IaC) para recuperação rápida da infraestrutura</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>As configurações de IaC podem desempenhar um papel em seu plano de recuperação de desastres, especialmente em situações em que o tempo de recuperação não é sensível ao tempo. Em caso de recreação de infraestrutura em uma segunda região, o IaC pode ser usado para reproduzir a infraestrutura necessária.</t>
+          <t>As configurações de IaC podem desempenhar um papel em seu plano de recuperação de desastres, especialmente em situações em que o tempo de recuperação não é sensível ao tempo. No caso de recreação de infraestrutura em uma segunda região, a IaC pode ser usada para reproduzir a infraestrutura necessária.</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -2196,17 +2161,17 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Multi-região</t>
+          <t>Multirregião</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Planejar a recuperação entre regiões aproveitando os pares de regiões</t>
+          <t>Planeje a recuperação entre regiões aproveitando os pares de regiões</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>O Azure oferece pares de regiões que são separados geograficamente e podem ser usados para replicação entre regiões e recuperação de desastres. Esses pares de regiões fornecem redundância e proteção contra desastres regionais ou de grande escala.</t>
+          <t>O Azure oferece pares de regiões separados geograficamente e podem ser usados para replicação entre regiões e recuperação de desastre. Esses pares de regiões fornecem redundância e proteção contra desastres regionais ou de grande escala.</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
@@ -2245,17 +2210,17 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Gateways de aplicativos</t>
+          <t>Gateways de aplicativo</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Implante gateways de aplicativos com uma contagem mínima de instâncias de 2 para evitar o tempo de inatividade do provisionamento de instâncias</t>
+          <t>Implante Gateways de Aplicativo com uma contagem mínima de instâncias de 2 para evitar o tempo de inatividade do provisionamento de instâncias</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>Ao implantar um Application Gateway com uma contagem mínima de instâncias de duas, você terá pelo menos duas instâncias disponíveis em circunstâncias normais. Caso uma das instâncias encontre um problema, a outra instância manipulará o tráfego enquanto uma nova instância estiver sendo criada. Essa abordagem reduz significativamente o risco de interrupção do serviço e garante uma experiência perfeita para seus usuários.</t>
+          <t>Ao implantar um Gateway de Aplicativo com uma contagem mínima de instâncias de dois, você terá pelo menos duas instâncias disponíveis em circunstâncias normais. Caso uma das instâncias encontre um problema, a outra instância manipulará o tráfego enquanto uma nova instância estiver sendo criada. Essa abordagem reduz significativamente o risco de interrupção do serviço e garante uma experiência perfeita para seus usuários.</t>
         </is>
       </c>
       <c r="E31" s="21" t="inlineStr">
@@ -2294,7 +2259,7 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Gateways de aplicativos</t>
+          <t>Gateways de aplicativo</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
@@ -2304,7 +2269,7 @@
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>O SKU v2 oferece várias vantagens e novos recursos críticos que aumentam a disponibilidade e a resiliência de sua infraestrutura de aplicativos. Um recurso notável suportado pela SKU v2 é a redundância de zona, que permite que uma implantação do Application Gateway abranja várias zonas de disponibilidade.</t>
+          <t>O SKU v2 oferece várias vantagens e novos recursos críticos que aprimoram a disponibilidade e a resiliência de sua infraestrutura de aplicativos. Um recurso notável compatível com o SKU v2 é a redundância de zona, que permite que uma implantação do Gateway de Aplicativo abranja várias Zonas de Disponibilidade.</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -2344,7 +2309,7 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door</t>
+          <t>Porta da Frente Azure</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
@@ -2354,7 +2319,7 @@
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Azure Front Door fornece recursos de failover automático, garantindo a continuidade no caso de uma região primária ficar indisponível. No entanto, durante o processo de failover, pode haver um breve período (normalmente 20-60 segundos) quando os clientes não podem acessar o aplicativo. É essencial revisar o SLA (contrato de nível de serviço) do Azure Front Door para determinar se confiar exclusivamente no Front Door atende aos seus requisitos de negócios para alta disponibilidade. </t>
+          <t xml:space="preserve">O Azure Front Door fornece recursos de failover automático, garantindo a continuidade no caso de uma região primária ficar indisponível. No entanto, durante o processo de failover, pode haver um breve período (normalmente de 20 a 60 segundos) em que os clientes não podem acessar o aplicativo. É essencial examinar o SLA (contrato de nível de serviço) do Azure Front Door para determinar se confiar exclusivamente no Front Door atende aos seus requisitos de negócios para alta disponibilidade. </t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -2399,7 +2364,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Planejar failover automatizado usando o Gerenciador de Tráfego para Tráfego DNS</t>
+          <t>Planejar o failover automatizado usando o Gerenciador de Tráfego para Tráfego DNS</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
@@ -2449,12 +2414,12 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Implementar o failover de DNS usando os resolvedores privados de DNS do Azure</t>
+          <t>Implementar o failover de DNS usando os Resolvedores Privados de DNS do Azure</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>Para eliminar um único ponto de falha em seus serviços DNS locais e garantir uma resolução DNS confiável durante cenários de continuidade de negócios e recuperação de desastres, é recomendável utilizar os Resolvedores Privados de DNS do Azure em várias regiões. Ao implantar dois ou mais resolvedores privados de DNS do Azure em regiões diferentes, você pode habilitar o failover de DNS e obter resiliência em sua infraestrutura de DNS.</t>
+          <t>Para eliminar um único ponto de falha em seus serviços DNS locais e garantir uma resolução DNS confiável durante cenários de continuidade dos negócios e recuperação de desastre, é recomendável utilizar os Resolvedores Privados do DNS do Azure em várias regiões. Ao implantar dois ou mais resolvedores privados de DNS do Azure em diferentes regiões, você pode habilitar o failover de DNS e obter resiliência em sua infraestrutura DNS.</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2499,7 +2464,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Usar clusters de gateway de dados locais para garantir alta disponibilidade para dados críticos para os negócios</t>
+          <t>Use clusters de gateway de dados locais para garantir alta disponibilidade para dados comercialmente críticos</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
@@ -2544,17 +2509,17 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Rota Expressa</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Garanta redundância na rede de parceiros e na rede de clientes ao utilizar o ExpressRoute para alta disponibilidade</t>
+          <t>Garanta a redundância na rede do parceiro e na rede do cliente ao utilizar o ExpressRoute para alta disponibilidade</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>Ao usar a Rota Expressa, é importante projetar para alta disponibilidade incorporando redundância nas redes de parceiros e clientes. Isso pode incluir vários circuitos de Rota Expressa, conexões redundantes da rede para a Microsoft e garantir que o equipamento de rede local tenha conexões redundantes.</t>
+          <t>Ao usar o ExpressRoute, é importante projetar para alta disponibilidade incorporando redundância nas redes de parceiros e clientes. Isso pode incluir vários circuitos do ExpressRoute, conexões redundantes de sua rede com a Microsoft e garantir que seu equipamento de rede local tenha conexões redundantes.</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
@@ -2594,12 +2559,12 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>Rota Expressa</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Ao usar vários circuitos da Rota Expressa, certifique-se de que o roteamento permita um primário e um backup</t>
+          <t>Ao usar vários circuitos do ExpressRoute, verifique se o roteamento permite um primário e um backup</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
@@ -2644,17 +2609,17 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Rota Expressa</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Considere a implantação de VPN site a site como um backup para seu emparelhamento privado da Rota Expressa</t>
+          <t>Considere implantar a VPN site a site como um backup para o emparelhamento privado do ExpressRoute</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>A conexão VPN S2S pode fornecer uma solução de backup resiliente e econômica no caso de uma falha de circuito da Rota Expressa. Usando a VPN S2S como um failover, você pode manter a conectividade com seus recursos do Azure sem depender apenas da Rota Expressa.</t>
+          <t>A conexão VPN S2S pode fornecer uma solução de backup resiliente e econômica no caso de uma falha no circuito do ExpressRoute. Usando a VPN S2S como um failover, você pode manter a conectividade com seus recursos do Azure sem depender apenas do ExpressRoute.</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
@@ -2694,12 +2659,12 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Balanceadores de Carga</t>
+          <t>Balanceadores de carga</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Aproveite a SKU padrão para balanceadores de carga que lidam com o tráfego para aplicativos de produção</t>
+          <t>Aproveite o SKU Standard para Load Balancers que lidam com o tráfego para aplicativos de produção</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
@@ -2744,17 +2709,17 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Balanceadores de Carga</t>
+          <t>Balanceadores de carga</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Para balanceadores de carga, considere o uso de um frontend com redundância de zona com vários recursos zonais no back-end</t>
+          <t>Para balanceadores de carga, considere usar um front-end com redundância de zona com vários recursos zonais no back-end</t>
         </is>
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ao configurar o balanceador de carga com um frontend redundante de zona, ele pode servir recursos zonais em qualquer região com um único endereço IP. Contanto que pelo menos uma região permaneça íntegra dentro da região, o endereço IP associado ao front-end pode sobreviver a uma ou mais falhas de zona. É recomendável ter vários recursos zonais, como máquinas virtuais de zonas diferentes, no pool de back-end do balanceador de carga. </t>
+          <t xml:space="preserve">Ao configurar o balanceador de carga com um front-end com redundância de zona, ele pode atender a recursos zonais em qualquer zona com um único endereço IP. Desde que pelo menos uma zona permaneça íntegra dentro da região, o endereço IP associado ao front-end pode sobreviver a uma ou mais falhas de zona. É recomendável ter vários recursos zonais, como máquinas virtuais de zonas diferentes, no pool de back-end do balanceador de carga. </t>
         </is>
       </c>
       <c r="E41" s="21" t="inlineStr">
@@ -2794,17 +2759,17 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Balanceadores de Carga</t>
+          <t>Balanceadores de carga</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Selecione o protocolo correto, intervalos e tempos limite apropriados, caminhos representativos e respostas de teste ao definir os testes de integridade do Load Balancer</t>
+          <t>Selecione o protocolo correto, intervalos e tempos limite apropriados, caminhos representativos e respostas de investigação ao definir as investigações de integridade do balanceador de carga</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>Ao projetar testes de integridade para o Balanceador de Carga do Azure, é importante seguir as práticas recomendadas para garantir o monitoramento confiável e preciso de suas instâncias de back-end.</t>
+          <t>Ao projetar investigações de integridade para o Azure Load Balancer, é importante seguir as práticas recomendadas para garantir o monitoramento confiável e preciso de suas instâncias de back-end.</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
@@ -2849,12 +2814,12 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Implantar NVAs (Network Virtual Appliances) em uma configuração suportada pelo fornecedor para alta disponibilidade</t>
+          <t>Implantar NVAs (Soluções de Virtualização de Rede) em uma configuração com suporte do fornecedor para alta disponibilidade</t>
         </is>
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t>Ao escolher a melhor opção para implantar NVAs no Azure, é crucial considerar as recomendações do fornecedor e validar se o design específico foi verificado e validado pelo fornecedor de NVA. O fornecedor também deve fornecer a configuração NVA necessária para uma integração perfeita no Azure.</t>
+          <t>Ao escolher a melhor opção para implantar NVAs no Azure, é crucial considerar as recomendações do fornecedor e validar se o design específico foi examinado e validado pelo fornecedor de NVA. O fornecedor também deve fornecer a configuração de NVA necessária para integração perfeita no Azure.</t>
         </is>
       </c>
       <c r="E43" s="21" t="inlineStr">
@@ -2904,7 +2869,7 @@
       </c>
       <c r="D44" s="21" t="inlineStr">
         <is>
-          <t>Ao implantar gateways VPN em um modo ativo-ativo, você pode distribuir o tráfego VPN em vários gateways, melhorando a confiabilidade e garantindo conectividade contínua em caso de falhas ou manutenção.</t>
+          <t>Ao implantar gateways de VPN em um modo ativo-ativo, você pode distribuir o tráfego VPN em vários gateways, melhorando a confiabilidade e garantindo conectividade contínua em caso de falhas ou manutenção.</t>
         </is>
       </c>
       <c r="E44" s="21" t="inlineStr">
@@ -2949,12 +2914,12 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Use SKUs com redundância de zona ao implantar gateways VPN para aumentar a resiliência e proteger contra falhas no nível da zona</t>
+          <t>Use SKUs com redundância de zona ao implantar Gateways de VPN para aprimorar a resiliência e proteger contra falhas no nível da zona</t>
         </is>
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t>As SKUs com redundância de zona garantem que seus gateways VPN estejam física e logicamente separados dentro de uma região, fornecendo resiliência e escalabilidade. Essa configuração de implantação protege sua conectividade de rede local com o Azure contra falhas no nível da zona.</t>
+          <t>Os SKUs com redundância de zona garantem que seus gateways de VPN sejam separados física e logicamente em uma região, fornecendo resiliência e escalabilidade. Essa configuração de implantação protege sua conectividade de rede local com o Azure contra falhas no nível da zona.</t>
         </is>
       </c>
       <c r="E45" s="21" t="inlineStr">
@@ -6972,20 +6937,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -6995,121 +7058,6 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7273,7 +7221,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Essa verificação foi verificada e não há outros itens de ação associados a ela</t>
+          <t>Essa verificação foi verificada e não há mais itens de ação associados a ela</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -7312,7 +7260,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Não aplicável ao projeto atual</t>
+          <t>Não aplicável para o projeto atual</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
